--- a/biology/Médecine/Transmission_autosomique_récessive/Transmission_autosomique_récessive.xlsx
+++ b/biology/Médecine/Transmission_autosomique_récessive/Transmission_autosomique_récessive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transmission_autosomique_r%C3%A9cessive</t>
+          <t>Transmission_autosomique_récessive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un caractère génétique est dit à transmission autosomique récessive quand
 le gène impliqué est porté par un autosome (chromosome non sexuel, ni X, ni Y chez les organismes à système XY de détermination sexuelle) ;
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transmission_autosomique_r%C3%A9cessive</t>
+          <t>Transmission_autosomique_récessive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,92 +531,271 @@
           <t>Schéma général de la transmission autosomique récessive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les schémas, les gamètes porteurs de l'allèle normal (sauvage) sont en bleu, les gamètes porteurs de l'allèle anormal sont en rouge. Les personnes porteuses du gène anormal sur deux allèles (et donc susceptible de développer la maladie) sont en rouge, les personnes porteuses du gène anormal sur un seul allèle (dites porteuses saines ou conductrices) sont en violet, les personnes non porteuses du gène anormal sont en bleu.
-Union d'un porteur et d'un non-porteur
-Comme ce schéma le montre, à chaque grossesse, ce couple a un risque :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission autosomique récessive</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Union d'un porteur et d'un non-porteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce schéma le montre, à chaque grossesse, ce couple a un risque :
 1/2 d'avoir un enfant porteur de l'allèle anormal, il est dit hétérozygote ;
 1/2 d'avoir un enfant non porteur qui est dit homozygote pour l'allèle sauvage (normal).
 Donc la transmission d'une maladie génétique autosomique récessive peut s'arrêter (il suffit qu'aucun enfant porteur ne naisse de l'union).
-Union de deux porteurs
-Comme le montrent les schémas ci-contre, à chaque grossesse, ce couple a un risque :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission autosomique récessive</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Union de deux porteurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le montrent les schémas ci-contre, à chaque grossesse, ce couple a un risque :
 1/4 d'avoir un enfant homozygote atteint par la maladie ;
 1/2 d'avoir un enfant hétérozygote ;
 1/4 d'avoir un enfant homozygote sain.
 On peut ainsi calculer la probabilité de la survenue d'une maladie autosomique récessive en connaissant l'incidence de porteur de l'allèle anormal dans la population générale. Ainsi, si un allèle est présent chez un sujet sur 70, la probabilité qu'un couple quelconque ait un enfant atteint par la maladie est de 1/70 multiplié par 1/70 multiplié par 1/4 soit 1/19 600 si la pénétrance de cette maladie est de 100 %.
 Ce simple calcul statistique explique par exemple que, dans le cas de l'hémochromatose, malgré le fait que 10 % de la population française soit porteuse de l'allèle anormal, on a une probabilité de 1/10 multiplié par 1/10 multiplié par 1/4, soit 1/400 à chaque grossesse d'avoir un enfant homozygote, mais la prévalence de la maladie est plus faible en raison d'un taux de pénétrance bas.
 Dans le cas de la mucoviscidose, la prévalence de porteur d'une mutation du gène CFTR responsable est de 1 sur 20, soit une probabilité théorique de 1/20 multiplié par 1/20 multiplié par 1/4, soit 1/1 600, mais la prévalence de la mucoviscidose grave est beaucoup plus faible en raison des manifestations très diverses de cette maladie.
-Union d'un non-porteur et d'un atteint
-Comme le schéma à droite le montre, tous les enfants de ce couple seront porteurs de l'allèle mutant.
-Union d'un porteur et d'un atteint
-Comme le schéma à gauche le montre, à chaque grossesse, ce couple a un risque :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission autosomique récessive</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Union d'un non-porteur et d'un atteint</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le schéma à droite le montre, tous les enfants de ce couple seront porteurs de l'allèle mutant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission autosomique récessive</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Union d'un porteur et d'un atteint</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le schéma à gauche le montre, à chaque grossesse, ce couple a un risque :
 1/2 d'avoir un enfant hétérozygote ;
 1/2 d'avoir un enfant homozygote mutant, donc malade.
-Union de deux atteints
-Tous les enfants sont malades.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Transmission_autosomique_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_r%C3%A9cessive</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission autosomique récessive</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Union de deux atteints</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les enfants sont malades.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Base générale du conseil génétique dans les maladies à transmission autosomique récessive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En génétique, le proposant désigne la personne indemne de maladie à partir de laquelle on fait le conseil génétique. Si ce proposant à partir duquel on fait le conseil génétique est atteint par la maladie génétique, on parle alors de cas index.
-Parent d'un proposant
-Fratrie d'un proposant
-Descendance d'un proposant</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Transmission_autosomique_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En génétique, le proposant désigne la personne indemne de maladie à partir de laquelle on fait le conseil génétique. Si ce proposant à partir duquel on fait le conseil génétique est atteint par la maladie génétique, on parle alors de cas index.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_r%C3%A9cessive</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Exemples de maladies se transmettant sur le mode autosomique récessif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Syndrome d'Abdallat-Davis-Farrage
